--- a/Project2/map/map_stage3(1).xlsx
+++ b/Project2/map/map_stage3(1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Project2\Project2\map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JumpKing\Project2\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88944BF-CE49-4377-933C-13A6AD94E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0D481-D424-4408-B1FB-78DF4E9B55B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{68129AD2-75B7-47D2-A759-44B82251DD15}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="13605" xr2:uid="{68129AD2-75B7-47D2-A759-44B82251DD15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,11 +513,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147F8862-DF55-4309-99EC-A76675B592DE}">
   <dimension ref="A1:AN300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C263" zoomScale="61" workbookViewId="0">
-      <selection activeCell="BE272" sqref="BE272"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -1988,118 +1992,118 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="T13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="U13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="V13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Y13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Z13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AA13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AB13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AC13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AD13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AE13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AF13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AG13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AH13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AI13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AM13" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AN13" s="1">
         <v>1</v>
@@ -2107,7 +2111,7 @@
     </row>
     <row r="14" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2224,12 +2228,12 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2346,12 +2350,12 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2468,12 +2472,12 @@
         <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -2590,12 +2594,12 @@
         <v>0</v>
       </c>
       <c r="AN17" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -2649,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -2712,12 +2716,12 @@
         <v>0</v>
       </c>
       <c r="AN18" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -2771,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>0</v>
@@ -2834,12 +2838,12 @@
         <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -2893,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
         <v>0</v>
@@ -2935,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="1">
         <v>0</v>
@@ -2956,12 +2960,12 @@
         <v>0</v>
       </c>
       <c r="AN20" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -3015,16 +3019,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -3057,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="1">
         <v>0</v>
@@ -3078,12 +3082,12 @@
         <v>0</v>
       </c>
       <c r="AN21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -3137,75 +3141,75 @@
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -3259,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V23" s="1">
         <v>0</v>
@@ -3322,12 +3326,12 @@
         <v>0</v>
       </c>
       <c r="AN23" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -3444,12 +3448,12 @@
         <v>0</v>
       </c>
       <c r="AN24" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -3503,19 +3507,19 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -3539,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="1">
         <v>0</v>
@@ -3566,12 +3570,12 @@
         <v>0</v>
       </c>
       <c r="AN25" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -3604,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -3688,12 +3692,12 @@
         <v>0</v>
       </c>
       <c r="AN26" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -3810,12 +3814,12 @@
         <v>0</v>
       </c>
       <c r="AN27" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -3932,12 +3936,12 @@
         <v>0</v>
       </c>
       <c r="AN28" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -3970,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
@@ -4054,12 +4058,12 @@
         <v>0</v>
       </c>
       <c r="AN29" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -4131,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
         <v>0</v>
@@ -4176,12 +4180,12 @@
         <v>0</v>
       </c>
       <c r="AN30" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -4253,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="1">
         <v>0</v>
@@ -4298,12 +4302,12 @@
         <v>0</v>
       </c>
       <c r="AN31" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -4375,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
@@ -4420,24 +4424,24 @@
         <v>0</v>
       </c>
       <c r="AN32" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -4458,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4476,49 +4480,49 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1">
         <v>0</v>
@@ -4542,12 +4546,12 @@
         <v>0</v>
       </c>
       <c r="AN33" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -4664,12 +4668,12 @@
         <v>0</v>
       </c>
       <c r="AN34" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -4750,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="1">
         <v>0</v>
@@ -4786,12 +4790,12 @@
         <v>0</v>
       </c>
       <c r="AN35" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -4890,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="1">
         <v>0</v>
@@ -4908,12 +4912,12 @@
         <v>0</v>
       </c>
       <c r="AN36" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -5030,12 +5034,12 @@
         <v>0</v>
       </c>
       <c r="AN37" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -5098,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -5152,12 +5156,12 @@
         <v>0</v>
       </c>
       <c r="AN38" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -5274,12 +5278,12 @@
         <v>0</v>
       </c>
       <c r="AN39" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -5306,16 +5310,16 @@
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
@@ -5396,12 +5400,12 @@
         <v>0</v>
       </c>
       <c r="AN40" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -5452,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -5482,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="1">
         <v>0</v>
@@ -5518,12 +5522,12 @@
         <v>0</v>
       </c>
       <c r="AN41" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -5640,15 +5644,15 @@
         <v>0</v>
       </c>
       <c r="AN42" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -5726,16 +5730,16 @@
         <v>0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE43" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF43" s="1">
         <v>0</v>
@@ -5756,24 +5760,24 @@
         <v>0</v>
       </c>
       <c r="AL43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM43" s="1">
         <v>0</v>
       </c>
       <c r="AN43" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -5836,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -5866,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="1">
         <v>0</v>
@@ -5884,21 +5888,21 @@
         <v>0</v>
       </c>
       <c r="AN44" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -5940,19 +5944,19 @@
         <v>0</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U45" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V45" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W45" s="1">
         <v>0</v>
@@ -6006,24 +6010,24 @@
         <v>0</v>
       </c>
       <c r="AN45" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -6128,27 +6132,27 @@
         <v>0</v>
       </c>
       <c r="AN46" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -6250,12 +6254,12 @@
         <v>0</v>
       </c>
       <c r="AN47" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -6372,12 +6376,12 @@
         <v>0</v>
       </c>
       <c r="AN48" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -6464,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="1">
         <v>0</v>
@@ -6494,12 +6498,12 @@
         <v>0</v>
       </c>
       <c r="AN49" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -6616,12 +6620,12 @@
         <v>0</v>
       </c>
       <c r="AN50" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -6717,16 +6721,16 @@
         <v>0</v>
       </c>
       <c r="AG51" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK51" s="1">
         <v>0</v>
@@ -6738,15 +6742,15 @@
         <v>0</v>
       </c>
       <c r="AN51" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -6800,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U52" s="1">
         <v>0</v>
@@ -6833,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="1">
         <v>0</v>
@@ -6848,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="1">
         <v>0</v>
@@ -6860,18 +6864,18 @@
         <v>0</v>
       </c>
       <c r="AN52" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -6982,21 +6986,21 @@
         <v>0</v>
       </c>
       <c r="AN53" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -7104,24 +7108,24 @@
         <v>0</v>
       </c>
       <c r="AN54" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -7208,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="1">
         <v>0</v>
@@ -7226,12 +7230,12 @@
         <v>0</v>
       </c>
       <c r="AN55" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -7300,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z56" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA56" s="1">
         <v>0</v>
@@ -7348,12 +7352,12 @@
         <v>0</v>
       </c>
       <c r="AN56" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -7446,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="AF57" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="1">
         <v>0</v>
@@ -7470,12 +7474,12 @@
         <v>0</v>
       </c>
       <c r="AN57" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -7592,12 +7596,12 @@
         <v>0</v>
       </c>
       <c r="AN58" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -7678,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="1">
         <v>0</v>
@@ -7714,12 +7718,12 @@
         <v>0</v>
       </c>
       <c r="AN59" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -7836,12 +7840,12 @@
         <v>0</v>
       </c>
       <c r="AN60" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -7889,16 +7893,16 @@
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T61" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U61" s="1">
         <v>0</v>
@@ -7910,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="1">
         <v>0</v>
@@ -7958,12 +7962,12 @@
         <v>0</v>
       </c>
       <c r="AN61" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -8080,12 +8084,12 @@
         <v>0</v>
       </c>
       <c r="AN62" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -8202,12 +8206,12 @@
         <v>0</v>
       </c>
       <c r="AN63" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -8228,16 +8232,16 @@
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64" s="1">
         <v>0</v>
@@ -8264,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U64" s="1">
         <v>0</v>
@@ -8324,12 +8328,12 @@
         <v>0</v>
       </c>
       <c r="AN64" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -8446,12 +8450,12 @@
         <v>0</v>
       </c>
       <c r="AN65" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -8568,12 +8572,12 @@
         <v>0</v>
       </c>
       <c r="AN66" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -8690,12 +8694,12 @@
         <v>0</v>
       </c>
       <c r="AN67" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -8737,16 +8741,16 @@
         <v>0</v>
       </c>
       <c r="O68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1">
         <v>0</v>
@@ -8812,12 +8816,12 @@
         <v>0</v>
       </c>
       <c r="AN68" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -8934,15 +8938,15 @@
         <v>0</v>
       </c>
       <c r="AN69" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -9056,12 +9060,12 @@
         <v>0</v>
       </c>
       <c r="AN70" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -9178,12 +9182,12 @@
         <v>0</v>
       </c>
       <c r="AN71" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -9192,120 +9196,120 @@
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="U72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="W72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AC72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AD72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AE72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AH72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM72" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AN72" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -9332,31 +9336,31 @@
         <v>0</v>
       </c>
       <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>5</v>
+      </c>
+      <c r="O73" s="1">
         <v>2</v>
       </c>
-      <c r="K73" s="1">
-        <v>0</v>
-      </c>
-      <c r="L73" s="1">
-        <v>0</v>
-      </c>
-      <c r="M73" s="1">
-        <v>0</v>
-      </c>
-      <c r="N73" s="1">
+      <c r="P73" s="1">
         <v>2</v>
       </c>
-      <c r="O73" s="1">
-        <v>0</v>
-      </c>
-      <c r="P73" s="1">
-        <v>0</v>
-      </c>
       <c r="Q73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S73" s="1">
         <v>0</v>
@@ -9422,12 +9426,12 @@
         <v>0</v>
       </c>
       <c r="AN73" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -9505,16 +9509,16 @@
         <v>0</v>
       </c>
       <c r="AA74" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB74" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC74" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD74" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE74" s="1">
         <v>0</v>
@@ -9544,12 +9548,12 @@
         <v>0</v>
       </c>
       <c r="AN74" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -9666,24 +9670,24 @@
         <v>0</v>
       </c>
       <c r="AN75" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -9788,24 +9792,24 @@
         <v>0</v>
       </c>
       <c r="AN76" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -9862,10 +9866,10 @@
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="1">
         <v>0</v>
@@ -9910,12 +9914,12 @@
         <v>0</v>
       </c>
       <c r="AN77" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -10032,12 +10036,12 @@
         <v>0</v>
       </c>
       <c r="AN78" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -10154,12 +10158,12 @@
         <v>0</v>
       </c>
       <c r="AN79" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -10246,10 +10250,10 @@
         <v>0</v>
       </c>
       <c r="AD80" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF80" s="1">
         <v>0</v>
@@ -10276,12 +10280,12 @@
         <v>0</v>
       </c>
       <c r="AN80" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -10398,12 +10402,12 @@
         <v>0</v>
       </c>
       <c r="AN81" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -10520,12 +10524,12 @@
         <v>0</v>
       </c>
       <c r="AN82" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -10570,19 +10574,19 @@
         <v>0</v>
       </c>
       <c r="P83" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q83" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R83" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S83" s="1">
         <v>2</v>
       </c>
       <c r="T83" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U83" s="1">
         <v>0</v>
@@ -10642,12 +10646,12 @@
         <v>0</v>
       </c>
       <c r="AN83" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -10764,12 +10768,12 @@
         <v>0</v>
       </c>
       <c r="AN84" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -10886,12 +10890,12 @@
         <v>0</v>
       </c>
       <c r="AN85" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -11008,12 +11012,12 @@
         <v>0</v>
       </c>
       <c r="AN86" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -11130,12 +11134,12 @@
         <v>0</v>
       </c>
       <c r="AN87" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -11252,12 +11256,12 @@
         <v>0</v>
       </c>
       <c r="AN88" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -11290,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M89" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89" s="1">
         <v>0</v>
@@ -11374,12 +11378,12 @@
         <v>0</v>
       </c>
       <c r="AN89" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -11409,16 +11413,16 @@
         <v>0</v>
       </c>
       <c r="K90" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L90" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M90" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N90" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O90" s="1">
         <v>0</v>
@@ -11496,12 +11500,12 @@
         <v>0</v>
       </c>
       <c r="AN90" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -11618,12 +11622,12 @@
         <v>0</v>
       </c>
       <c r="AN91" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -11740,12 +11744,12 @@
         <v>0</v>
       </c>
       <c r="AN92" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -11862,18 +11866,18 @@
         <v>0</v>
       </c>
       <c r="AN93" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B94" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
@@ -11984,12 +11988,12 @@
         <v>0</v>
       </c>
       <c r="AN94" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -12106,12 +12110,12 @@
         <v>0</v>
       </c>
       <c r="AN95" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -12228,12 +12232,12 @@
         <v>0</v>
       </c>
       <c r="AN96" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -12278,10 +12282,10 @@
         <v>0</v>
       </c>
       <c r="P97" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R97" s="1">
         <v>0</v>
@@ -12317,10 +12321,10 @@
         <v>0</v>
       </c>
       <c r="AC97" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD97" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE97" s="1">
         <v>0</v>
@@ -12350,12 +12354,12 @@
         <v>0</v>
       </c>
       <c r="AN97" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -12472,12 +12476,12 @@
         <v>0</v>
       </c>
       <c r="AN98" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -12573,16 +12577,16 @@
         <v>0</v>
       </c>
       <c r="AG99" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH99" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI99" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ99" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK99" s="1">
         <v>0</v>
@@ -12594,12 +12598,12 @@
         <v>0</v>
       </c>
       <c r="AN99" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -12662,10 +12666,10 @@
         <v>0</v>
       </c>
       <c r="V100" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W100" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X100" s="1">
         <v>0</v>
@@ -12701,10 +12705,10 @@
         <v>0</v>
       </c>
       <c r="AI100" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ100" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK100" s="1">
         <v>0</v>
@@ -12716,12 +12720,12 @@
         <v>0</v>
       </c>
       <c r="AN100" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -12748,16 +12752,16 @@
         <v>0</v>
       </c>
       <c r="J101" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K101" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L101" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M101" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N101" s="1">
         <v>0</v>
@@ -12838,12 +12842,12 @@
         <v>0</v>
       </c>
       <c r="AN101" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -12960,12 +12964,12 @@
         <v>0</v>
       </c>
       <c r="AN102" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -13082,12 +13086,12 @@
         <v>0</v>
       </c>
       <c r="AN103" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
@@ -13129,13 +13133,13 @@
         <v>0</v>
       </c>
       <c r="O104" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P104" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q104" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R104" s="1">
         <v>0</v>
@@ -13204,12 +13208,12 @@
         <v>0</v>
       </c>
       <c r="AN104" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
@@ -13326,12 +13330,12 @@
         <v>0</v>
       </c>
       <c r="AN105" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -13403,13 +13407,13 @@
         <v>0</v>
       </c>
       <c r="Y106" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z106" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA106" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB106" s="1">
         <v>0</v>
@@ -13427,10 +13431,10 @@
         <v>0</v>
       </c>
       <c r="AG106" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH106" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI106" s="1">
         <v>0</v>
@@ -13448,12 +13452,12 @@
         <v>0</v>
       </c>
       <c r="AN106" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -13570,12 +13574,12 @@
         <v>0</v>
       </c>
       <c r="AN107" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -13692,12 +13696,12 @@
         <v>0</v>
       </c>
       <c r="AN108" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -13760,10 +13764,10 @@
         <v>0</v>
       </c>
       <c r="V109" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W109" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X109" s="1">
         <v>0</v>
@@ -13814,12 +13818,12 @@
         <v>0</v>
       </c>
       <c r="AN109" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -13936,12 +13940,12 @@
         <v>0</v>
       </c>
       <c r="AN110" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -14058,12 +14062,12 @@
         <v>0</v>
       </c>
       <c r="AN111" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -14159,16 +14163,16 @@
         <v>0</v>
       </c>
       <c r="AG112" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH112" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI112" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ112" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK112" s="1">
         <v>0</v>
@@ -14180,12 +14184,12 @@
         <v>0</v>
       </c>
       <c r="AN112" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -14302,15 +14306,15 @@
         <v>0</v>
       </c>
       <c r="AN113" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C114" s="1">
         <v>0</v>
@@ -14424,12 +14428,12 @@
         <v>0</v>
       </c>
       <c r="AN114" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -14546,12 +14550,12 @@
         <v>0</v>
       </c>
       <c r="AN115" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -14668,12 +14672,12 @@
         <v>0</v>
       </c>
       <c r="AN116" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
@@ -14709,55 +14713,55 @@
         <v>0</v>
       </c>
       <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>0</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>0</v>
+      </c>
+      <c r="R117" s="1">
+        <v>0</v>
+      </c>
+      <c r="S117" s="1">
+        <v>0</v>
+      </c>
+      <c r="T117" s="1">
+        <v>0</v>
+      </c>
+      <c r="U117" s="1">
+        <v>0</v>
+      </c>
+      <c r="V117" s="1">
+        <v>0</v>
+      </c>
+      <c r="W117" s="1">
+        <v>0</v>
+      </c>
+      <c r="X117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA117" s="1">
         <v>2</v>
       </c>
-      <c r="N117" s="1">
+      <c r="AB117" s="1">
         <v>2</v>
       </c>
-      <c r="O117" s="1">
-        <v>0</v>
-      </c>
-      <c r="P117" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="1">
-        <v>0</v>
-      </c>
-      <c r="R117" s="1">
-        <v>0</v>
-      </c>
-      <c r="S117" s="1">
-        <v>0</v>
-      </c>
-      <c r="T117" s="1">
-        <v>0</v>
-      </c>
-      <c r="U117" s="1">
-        <v>0</v>
-      </c>
-      <c r="V117" s="1">
-        <v>0</v>
-      </c>
-      <c r="W117" s="1">
-        <v>0</v>
-      </c>
-      <c r="X117" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y117" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z117" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB117" s="1">
-        <v>0</v>
-      </c>
       <c r="AC117" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD117" s="1">
         <v>0</v>
@@ -14790,12 +14794,12 @@
         <v>0</v>
       </c>
       <c r="AN117" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -14912,12 +14916,12 @@
         <v>0</v>
       </c>
       <c r="AN118" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -14995,10 +14999,10 @@
         <v>0</v>
       </c>
       <c r="AA119" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB119" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC119" s="1">
         <v>0</v>
@@ -15034,24 +15038,24 @@
         <v>0</v>
       </c>
       <c r="AN119" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B120" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D120" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E120" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -15093,10 +15097,10 @@
         <v>0</v>
       </c>
       <c r="S120" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T120" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U120" s="1">
         <v>0</v>
@@ -15156,24 +15160,24 @@
         <v>0</v>
       </c>
       <c r="AN120" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C121" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D121" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E121" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -15278,24 +15282,24 @@
         <v>0</v>
       </c>
       <c r="AN121" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C122" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D122" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E122" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -15331,16 +15335,16 @@
         <v>0</v>
       </c>
       <c r="Q122" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R122" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S122" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T122" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U122" s="1">
         <v>0</v>
@@ -15379,10 +15383,10 @@
         <v>0</v>
       </c>
       <c r="AG122" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH122" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI122" s="1">
         <v>0</v>
@@ -15400,24 +15404,24 @@
         <v>0</v>
       </c>
       <c r="AN122" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B123" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D123" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E123" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -15522,24 +15526,24 @@
         <v>0</v>
       </c>
       <c r="AN123" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B124" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C124" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D124" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E124" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -15644,42 +15648,42 @@
         <v>0</v>
       </c>
       <c r="AN124" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="1">
         <v>0</v>
@@ -15766,12 +15770,12 @@
         <v>0</v>
       </c>
       <c r="AN125" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -15804,10 +15808,10 @@
         <v>0</v>
       </c>
       <c r="L126" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M126" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N126" s="1">
         <v>0</v>
@@ -15888,12 +15892,12 @@
         <v>0</v>
       </c>
       <c r="AN126" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
@@ -16010,12 +16014,12 @@
         <v>0</v>
       </c>
       <c r="AN127" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -16132,12 +16136,12 @@
         <v>0</v>
       </c>
       <c r="AN128" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -16254,12 +16258,12 @@
         <v>0</v>
       </c>
       <c r="AN129" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -16376,12 +16380,12 @@
         <v>0</v>
       </c>
       <c r="AN130" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -16408,16 +16412,16 @@
         <v>0</v>
       </c>
       <c r="J131" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L131" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M131" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N131" s="1">
         <v>0</v>
@@ -16426,19 +16430,19 @@
         <v>0</v>
       </c>
       <c r="P131" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q131" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R131" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S131" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T131" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U131" s="1">
         <v>0</v>
@@ -16498,12 +16502,12 @@
         <v>0</v>
       </c>
       <c r="AN131" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -16620,12 +16624,12 @@
         <v>0</v>
       </c>
       <c r="AN132" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -16742,12 +16746,12 @@
         <v>0</v>
       </c>
       <c r="AN133" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -16798,16 +16802,16 @@
         <v>0</v>
       </c>
       <c r="R134" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S134" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T134" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U134" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V134" s="1">
         <v>0</v>
@@ -16825,10 +16829,10 @@
         <v>0</v>
       </c>
       <c r="AA134" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB134" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC134" s="1">
         <v>0</v>
@@ -16864,12 +16868,12 @@
         <v>0</v>
       </c>
       <c r="AN134" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
@@ -16986,12 +16990,12 @@
         <v>0</v>
       </c>
       <c r="AN135" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
@@ -17108,12 +17112,12 @@
         <v>0</v>
       </c>
       <c r="AN136" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -17185,16 +17189,16 @@
         <v>0</v>
       </c>
       <c r="Y137" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z137" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA137" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB137" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC137" s="1">
         <v>0</v>
@@ -17209,10 +17213,10 @@
         <v>0</v>
       </c>
       <c r="AG137" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH137" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI137" s="1">
         <v>0</v>
@@ -17230,12 +17234,12 @@
         <v>0</v>
       </c>
       <c r="AN137" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B138" s="1">
         <v>0</v>
@@ -17352,12 +17356,12 @@
         <v>0</v>
       </c>
       <c r="AN138" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -17474,12 +17478,12 @@
         <v>0</v>
       </c>
       <c r="AN139" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -17542,10 +17546,10 @@
         <v>0</v>
       </c>
       <c r="V140" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W140" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X140" s="1">
         <v>0</v>
@@ -17596,12 +17600,12 @@
         <v>0</v>
       </c>
       <c r="AN140" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -17718,12 +17722,12 @@
         <v>0</v>
       </c>
       <c r="AN141" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -17819,16 +17823,16 @@
         <v>0</v>
       </c>
       <c r="AG142" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AH142" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AI142" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ142" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK142" s="1">
         <v>0</v>
@@ -17840,12 +17844,12 @@
         <v>0</v>
       </c>
       <c r="AN142" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -17962,12 +17966,12 @@
         <v>0</v>
       </c>
       <c r="AN143" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -18084,12 +18088,12 @@
         <v>0</v>
       </c>
       <c r="AN144" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -18206,12 +18210,12 @@
         <v>0</v>
       </c>
       <c r="AN145" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -18289,10 +18293,10 @@
         <v>0</v>
       </c>
       <c r="AA146" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB146" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC146" s="1">
         <v>0</v>
@@ -18328,12 +18332,12 @@
         <v>0</v>
       </c>
       <c r="AN146" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -18408,16 +18412,16 @@
         <v>0</v>
       </c>
       <c r="Z147" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA147" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB147" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC147" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AD147" s="1">
         <v>0</v>
@@ -18450,12 +18454,12 @@
         <v>0</v>
       </c>
       <c r="AN147" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -18572,12 +18576,12 @@
         <v>0</v>
       </c>
       <c r="AN148" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -18673,10 +18677,10 @@
         <v>0</v>
       </c>
       <c r="AG149" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH149" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI149" s="1">
         <v>0</v>
@@ -18694,12 +18698,12 @@
         <v>0</v>
       </c>
       <c r="AN149" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B150" s="1">
         <v>0</v>
@@ -18816,12 +18820,12 @@
         <v>0</v>
       </c>
       <c r="AN150" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -18938,12 +18942,12 @@
         <v>0</v>
       </c>
       <c r="AN151" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -18991,31 +18995,31 @@
         <v>0</v>
       </c>
       <c r="Q152" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R152" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S152" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T152" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U152" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V152" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="W152" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="X152" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Y152" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z152" s="1">
         <v>0</v>
@@ -19060,12 +19064,12 @@
         <v>0</v>
       </c>
       <c r="AN152" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -19182,12 +19186,12 @@
         <v>0</v>
       </c>
       <c r="AN153" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B154" s="1">
         <v>0</v>
@@ -19304,12 +19308,12 @@
         <v>0</v>
       </c>
       <c r="AN154" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -19330,16 +19334,16 @@
         <v>0</v>
       </c>
       <c r="H155" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I155" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K155" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L155" s="1">
         <v>0</v>
@@ -19426,12 +19430,12 @@
         <v>0</v>
       </c>
       <c r="AN155" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B156" s="1">
         <v>0</v>
@@ -19548,12 +19552,12 @@
         <v>0</v>
       </c>
       <c r="AN156" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B157" s="1">
         <v>0</v>
@@ -19670,12 +19674,12 @@
         <v>0</v>
       </c>
       <c r="AN157" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -19792,12 +19796,12 @@
         <v>0</v>
       </c>
       <c r="AN158" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B159" s="1">
         <v>0</v>
@@ -19875,10 +19879,10 @@
         <v>0</v>
       </c>
       <c r="AA159" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB159" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC159" s="1">
         <v>0</v>
@@ -19914,12 +19918,12 @@
         <v>0</v>
       </c>
       <c r="AN159" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B160" s="1">
         <v>0</v>
@@ -20036,12 +20040,12 @@
         <v>0</v>
       </c>
       <c r="AN160" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B161" s="1">
         <v>0</v>
@@ -20158,24 +20162,24 @@
         <v>0</v>
       </c>
       <c r="AN161" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B162" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C162" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D162" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E162" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F162" s="1">
         <v>0</v>
@@ -20259,10 +20263,10 @@
         <v>0</v>
       </c>
       <c r="AG162" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH162" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI162" s="1">
         <v>0</v>
@@ -20280,12 +20284,12 @@
         <v>0</v>
       </c>
       <c r="AN162" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B163" s="1">
         <v>0</v>
@@ -20402,12 +20406,12 @@
         <v>0</v>
       </c>
       <c r="AN163" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B164" s="1">
         <v>0</v>
@@ -20524,12 +20528,12 @@
         <v>0</v>
       </c>
       <c r="AN164" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B165" s="1">
         <v>0</v>
@@ -20592,10 +20596,10 @@
         <v>0</v>
       </c>
       <c r="V165" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W165" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X165" s="1">
         <v>0</v>
@@ -20646,12 +20650,12 @@
         <v>0</v>
       </c>
       <c r="AN165" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B166" s="1">
         <v>0</v>
@@ -20768,12 +20772,12 @@
         <v>0</v>
       </c>
       <c r="AN166" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B167" s="1">
         <v>0</v>
@@ -20890,12 +20894,12 @@
         <v>0</v>
       </c>
       <c r="AN167" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -21012,12 +21016,12 @@
         <v>0</v>
       </c>
       <c r="AN168" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B169" s="1">
         <v>0</v>
@@ -21044,16 +21048,16 @@
         <v>0</v>
       </c>
       <c r="J169" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K169" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L169" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M169" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N169" s="1">
         <v>0</v>
@@ -21134,12 +21138,12 @@
         <v>0</v>
       </c>
       <c r="AN169" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -21256,12 +21260,12 @@
         <v>0</v>
       </c>
       <c r="AN170" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B171" s="1">
         <v>0</v>
@@ -21378,12 +21382,12 @@
         <v>0</v>
       </c>
       <c r="AN171" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -21434,16 +21438,16 @@
         <v>0</v>
       </c>
       <c r="R172" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S172" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T172" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U172" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V172" s="1">
         <v>0</v>
@@ -21500,12 +21504,12 @@
         <v>0</v>
       </c>
       <c r="AN172" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -21622,12 +21626,12 @@
         <v>0</v>
       </c>
       <c r="AN173" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B174" s="1">
         <v>0</v>
@@ -21705,10 +21709,10 @@
         <v>0</v>
       </c>
       <c r="AA174" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB174" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC174" s="1">
         <v>0</v>
@@ -21744,12 +21748,12 @@
         <v>0</v>
       </c>
       <c r="AN174" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -21821,16 +21825,16 @@
         <v>0</v>
       </c>
       <c r="Y175" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z175" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA175" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB175" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC175" s="1">
         <v>0</v>
@@ -21866,12 +21870,12 @@
         <v>0</v>
       </c>
       <c r="AN175" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -21988,12 +21992,12 @@
         <v>0</v>
       </c>
       <c r="AN176" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B177" s="1">
         <v>0</v>
@@ -22089,10 +22093,10 @@
         <v>0</v>
       </c>
       <c r="AG177" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH177" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI177" s="1">
         <v>0</v>
@@ -22110,12 +22114,12 @@
         <v>0</v>
       </c>
       <c r="AN177" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -22232,12 +22236,12 @@
         <v>0</v>
       </c>
       <c r="AN178" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -22354,12 +22358,12 @@
         <v>0</v>
       </c>
       <c r="AN179" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B180" s="1">
         <v>0</v>
@@ -22422,49 +22426,49 @@
         <v>0</v>
       </c>
       <c r="V180" s="1">
+        <v>0</v>
+      </c>
+      <c r="W180" s="1">
+        <v>0</v>
+      </c>
+      <c r="X180" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG180" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH180" s="1">
         <v>2</v>
       </c>
-      <c r="W180" s="1">
+      <c r="AI180" s="1">
         <v>2</v>
       </c>
-      <c r="X180" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y180" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI180" s="1">
-        <v>0</v>
-      </c>
       <c r="AJ180" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK180" s="1">
         <v>0</v>
@@ -22476,12 +22480,12 @@
         <v>0</v>
       </c>
       <c r="AN180" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B181" s="1">
         <v>0</v>
@@ -22598,12 +22602,12 @@
         <v>0</v>
       </c>
       <c r="AN181" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
@@ -22720,12 +22724,12 @@
         <v>0</v>
       </c>
       <c r="AN182" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
@@ -22842,12 +22846,12 @@
         <v>0</v>
       </c>
       <c r="AN183" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B184" s="1">
         <v>0</v>
@@ -22964,12 +22968,12 @@
         <v>0</v>
       </c>
       <c r="AN184" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B185" s="1">
         <v>0</v>
@@ -23044,7 +23048,7 @@
         <v>0</v>
       </c>
       <c r="Z185" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA185" s="1">
         <v>2</v>
@@ -23053,7 +23057,7 @@
         <v>2</v>
       </c>
       <c r="AC185" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD185" s="1">
         <v>0</v>
@@ -23086,12 +23090,12 @@
         <v>0</v>
       </c>
       <c r="AN185" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B186" s="1">
         <v>0</v>
@@ -23208,12 +23212,12 @@
         <v>0</v>
       </c>
       <c r="AN186" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B187" s="1">
         <v>0</v>
@@ -23330,12 +23334,12 @@
         <v>0</v>
       </c>
       <c r="AN187" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
@@ -23431,10 +23435,10 @@
         <v>0</v>
       </c>
       <c r="AG188" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH188" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI188" s="1">
         <v>0</v>
@@ -23452,12 +23456,12 @@
         <v>0</v>
       </c>
       <c r="AN188" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B189" s="1">
         <v>0</v>
@@ -23574,12 +23578,12 @@
         <v>0</v>
       </c>
       <c r="AN189" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B190" s="1">
         <v>0</v>
@@ -23627,16 +23631,16 @@
         <v>0</v>
       </c>
       <c r="Q190" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R190" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S190" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T190" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U190" s="1">
         <v>0</v>
@@ -23696,12 +23700,12 @@
         <v>0</v>
       </c>
       <c r="AN190" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B191" s="1">
         <v>0</v>
@@ -23764,10 +23768,10 @@
         <v>0</v>
       </c>
       <c r="V191" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W191" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X191" s="1">
         <v>0</v>
@@ -23818,12 +23822,12 @@
         <v>0</v>
       </c>
       <c r="AN191" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
@@ -23940,12 +23944,12 @@
         <v>0</v>
       </c>
       <c r="AN192" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B193" s="1">
         <v>0</v>
@@ -23966,16 +23970,16 @@
         <v>0</v>
       </c>
       <c r="H193" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I193" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K193" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L193" s="1">
         <v>0</v>
@@ -24062,12 +24066,12 @@
         <v>0</v>
       </c>
       <c r="AN193" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B194" s="1">
         <v>0</v>
@@ -24184,12 +24188,12 @@
         <v>0</v>
       </c>
       <c r="AN194" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B195" s="1">
         <v>0</v>
@@ -24306,12 +24310,12 @@
         <v>0</v>
       </c>
       <c r="AN195" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B196" s="1">
         <v>0</v>
@@ -24428,21 +24432,21 @@
         <v>0</v>
       </c>
       <c r="AN196" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B197" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C197" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D197" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E197" s="1">
         <v>0</v>
@@ -24550,12 +24554,12 @@
         <v>0</v>
       </c>
       <c r="AN197" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B198" s="1">
         <v>0</v>
@@ -24636,10 +24640,10 @@
         <v>0</v>
       </c>
       <c r="AB198" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC198" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD198" s="1">
         <v>0</v>
@@ -24672,12 +24676,12 @@
         <v>0</v>
       </c>
       <c r="AN198" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B199" s="1">
         <v>0</v>
@@ -24794,12 +24798,12 @@
         <v>0</v>
       </c>
       <c r="AN199" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B200" s="1">
         <v>0</v>
@@ -24916,12 +24920,12 @@
         <v>0</v>
       </c>
       <c r="AN200" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B201" s="1">
         <v>0</v>
@@ -25020,10 +25024,10 @@
         <v>0</v>
       </c>
       <c r="AH201" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI201" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ201" s="1">
         <v>0</v>
@@ -25038,12 +25042,12 @@
         <v>0</v>
       </c>
       <c r="AN201" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B202" s="1">
         <v>0</v>
@@ -25073,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="K202" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O202" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P202" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q202" s="1">
         <v>0</v>
@@ -25160,12 +25164,12 @@
         <v>0</v>
       </c>
       <c r="AN202" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B203" s="1">
         <v>0</v>
@@ -25195,22 +25199,22 @@
         <v>0</v>
       </c>
       <c r="K203" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L203" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M203" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N203" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O203" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P203" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q203" s="1">
         <v>0</v>
@@ -25282,12 +25286,12 @@
         <v>0</v>
       </c>
       <c r="AN203" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B204" s="1">
         <v>0</v>
@@ -25353,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="W204" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X204" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y204" s="1">
         <v>0</v>
@@ -25404,12 +25408,12 @@
         <v>0</v>
       </c>
       <c r="AN204" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B205" s="1">
         <v>0</v>
@@ -25526,12 +25530,12 @@
         <v>0</v>
       </c>
       <c r="AN205" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B206" s="1">
         <v>0</v>
@@ -25648,12 +25652,12 @@
         <v>0</v>
       </c>
       <c r="AN206" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B207" s="1">
         <v>0</v>
@@ -25770,12 +25774,12 @@
         <v>0</v>
       </c>
       <c r="AN207" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B208" s="1">
         <v>0</v>
@@ -25892,12 +25896,12 @@
         <v>0</v>
       </c>
       <c r="AN208" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B209" s="1">
         <v>0</v>
@@ -26014,12 +26018,12 @@
         <v>0</v>
       </c>
       <c r="AN209" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B210" s="1">
         <v>0</v>
@@ -26097,10 +26101,10 @@
         <v>0</v>
       </c>
       <c r="AA210" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB210" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC210" s="1">
         <v>0</v>
@@ -26136,12 +26140,12 @@
         <v>0</v>
       </c>
       <c r="AN210" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B211" s="1">
         <v>0</v>
@@ -26216,22 +26220,22 @@
         <v>0</v>
       </c>
       <c r="Z211" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD211" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE211" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF211" s="1">
         <v>0</v>
@@ -26258,12 +26262,12 @@
         <v>0</v>
       </c>
       <c r="AN211" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B212" s="1">
         <v>0</v>
@@ -26272,22 +26276,22 @@
         <v>0</v>
       </c>
       <c r="D212" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G212" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H212" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I212" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J212" s="1">
         <v>0</v>
@@ -26338,22 +26342,22 @@
         <v>0</v>
       </c>
       <c r="Z212" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA212" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB212" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC212" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD212" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE212" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF212" s="1">
         <v>0</v>
@@ -26380,12 +26384,12 @@
         <v>0</v>
       </c>
       <c r="AN212" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B213" s="1">
         <v>0</v>
@@ -26394,22 +26398,22 @@
         <v>0</v>
       </c>
       <c r="D213" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J213" s="1">
         <v>0</v>
@@ -26481,10 +26485,10 @@
         <v>0</v>
       </c>
       <c r="AG213" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH213" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI213" s="1">
         <v>0</v>
@@ -26502,12 +26506,12 @@
         <v>0</v>
       </c>
       <c r="AN213" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B214" s="1">
         <v>0</v>
@@ -26516,22 +26520,22 @@
         <v>0</v>
       </c>
       <c r="D214" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E214" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F214" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G214" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H214" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I214" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J214" s="1">
         <v>0</v>
@@ -26624,12 +26628,12 @@
         <v>0</v>
       </c>
       <c r="AN214" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B215" s="1">
         <v>0</v>
@@ -26746,12 +26750,12 @@
         <v>0</v>
       </c>
       <c r="AN215" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B216" s="1">
         <v>0</v>
@@ -26814,10 +26818,10 @@
         <v>0</v>
       </c>
       <c r="V216" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W216" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X216" s="1">
         <v>0</v>
@@ -26868,12 +26872,12 @@
         <v>0</v>
       </c>
       <c r="AN216" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B217" s="1">
         <v>0</v>
@@ -26990,12 +26994,12 @@
         <v>0</v>
       </c>
       <c r="AN217" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B218" s="1">
         <v>0</v>
@@ -27094,16 +27098,16 @@
         <v>0</v>
       </c>
       <c r="AH218" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI218" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ218" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK218" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL218" s="1">
         <v>0</v>
@@ -27112,12 +27116,12 @@
         <v>0</v>
       </c>
       <c r="AN218" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B219" s="1">
         <v>0</v>
@@ -27153,43 +27157,43 @@
         <v>0</v>
       </c>
       <c r="M219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y219" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z219" s="1">
         <v>0</v>
@@ -27216,16 +27220,16 @@
         <v>0</v>
       </c>
       <c r="AH219" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK219" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL219" s="1">
         <v>0</v>
@@ -27234,12 +27238,12 @@
         <v>0</v>
       </c>
       <c r="AN219" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B220" s="1">
         <v>0</v>
@@ -27275,43 +27279,43 @@
         <v>0</v>
       </c>
       <c r="M220" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y220" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z220" s="1">
         <v>0</v>
@@ -27338,16 +27342,16 @@
         <v>0</v>
       </c>
       <c r="AH220" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK220" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL220" s="1">
         <v>0</v>
@@ -27356,12 +27360,12 @@
         <v>0</v>
       </c>
       <c r="AN220" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B221" s="1">
         <v>0</v>
@@ -27397,43 +27401,43 @@
         <v>0</v>
       </c>
       <c r="M221" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y221" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z221" s="1">
         <v>0</v>
@@ -27460,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="AH221" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK221" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL221" s="1">
         <v>0</v>
@@ -27478,12 +27482,12 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B222" s="1">
         <v>0</v>
@@ -27519,43 +27523,43 @@
         <v>0</v>
       </c>
       <c r="M222" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="W222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X222" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y222" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z222" s="1">
         <v>0</v>
@@ -27582,16 +27586,16 @@
         <v>0</v>
       </c>
       <c r="AH222" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK222" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL222" s="1">
         <v>0</v>
@@ -27600,12 +27604,12 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B223" s="1">
         <v>0</v>
@@ -27689,10 +27693,10 @@
         <v>0</v>
       </c>
       <c r="AC223" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD223" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE223" s="1">
         <v>0</v>
@@ -27704,16 +27708,16 @@
         <v>0</v>
       </c>
       <c r="AH223" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI223" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ223" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK223" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL223" s="1">
         <v>0</v>
@@ -27722,12 +27726,12 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B224" s="1">
         <v>0</v>
@@ -27823,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="AG224" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH224" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI224" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AJ224" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK224" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL224" s="1">
         <v>0</v>
@@ -27844,12 +27848,12 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B225" s="1">
         <v>0</v>
@@ -27966,12 +27970,12 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B226" s="1">
         <v>0</v>
@@ -28088,12 +28092,12 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B227" s="1">
         <v>0</v>
@@ -28123,22 +28127,22 @@
         <v>0</v>
       </c>
       <c r="K227" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P227" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q227" s="1">
         <v>0</v>
@@ -28153,22 +28157,22 @@
         <v>0</v>
       </c>
       <c r="U227" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z227" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA227" s="1">
         <v>0</v>
@@ -28210,12 +28214,12 @@
         <v>0</v>
       </c>
       <c r="AN227" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B228" s="1">
         <v>0</v>
@@ -28332,12 +28336,12 @@
         <v>0</v>
       </c>
       <c r="AN228" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B229" s="1">
         <v>0</v>
@@ -28445,21 +28449,21 @@
         <v>0</v>
       </c>
       <c r="AK229" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL229" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM229" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN229" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B230" s="1">
         <v>0</v>
@@ -28576,12 +28580,12 @@
         <v>0</v>
       </c>
       <c r="AN230" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B231" s="1">
         <v>0</v>
@@ -28668,25 +28672,25 @@
         <v>0</v>
       </c>
       <c r="AD231" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ231" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK231" s="1">
         <v>0</v>
@@ -28698,12 +28702,12 @@
         <v>0</v>
       </c>
       <c r="AN231" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B232" s="1">
         <v>0</v>
@@ -28736,25 +28740,25 @@
         <v>0</v>
       </c>
       <c r="L232" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M232" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N232" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O232" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P232" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q232" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R232" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S232" s="1">
         <v>0</v>
@@ -28796,19 +28800,19 @@
         <v>0</v>
       </c>
       <c r="AF232" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG232" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH232" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI232" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ232" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK232" s="1">
         <v>0</v>
@@ -28820,12 +28824,12 @@
         <v>0</v>
       </c>
       <c r="AN232" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B233" s="1">
         <v>0</v>
@@ -28858,25 +28862,25 @@
         <v>0</v>
       </c>
       <c r="L233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S233" s="1">
         <v>0</v>
@@ -28918,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="AF233" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ233" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK233" s="1">
         <v>0</v>
@@ -28942,12 +28946,12 @@
         <v>0</v>
       </c>
       <c r="AN233" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B234" s="1">
         <v>0</v>
@@ -29040,19 +29044,19 @@
         <v>0</v>
       </c>
       <c r="AF234" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG234" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH234" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI234" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AJ234" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK234" s="1">
         <v>0</v>
@@ -29064,12 +29068,12 @@
         <v>0</v>
       </c>
       <c r="AN234" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B235" s="1">
         <v>0</v>
@@ -29162,13 +29166,13 @@
         <v>0</v>
       </c>
       <c r="AF235" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG235" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH235" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI235" s="1">
         <v>0</v>
@@ -29186,12 +29190,12 @@
         <v>0</v>
       </c>
       <c r="AN235" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B236" s="1">
         <v>0</v>
@@ -29308,33 +29312,33 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B237" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C237" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D237" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E237" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F237" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G237" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H237" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I237" s="1">
         <v>0</v>
@@ -29430,33 +29434,33 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I238" s="1">
         <v>0</v>
@@ -29552,33 +29556,33 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I239" s="1">
         <v>0</v>
@@ -29674,33 +29678,33 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B240" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C240" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D240" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E240" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F240" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G240" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H240" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I240" s="1">
         <v>0</v>
@@ -29715,19 +29719,19 @@
         <v>0</v>
       </c>
       <c r="M240" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N240" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O240" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P240" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q240" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R240" s="1">
         <v>0</v>
@@ -29796,12 +29800,12 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B241" s="1">
         <v>0</v>
@@ -29837,19 +29841,19 @@
         <v>0</v>
       </c>
       <c r="M241" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N241" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O241" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P241" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q241" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R241" s="1">
         <v>0</v>
@@ -29909,21 +29913,21 @@
         <v>0</v>
       </c>
       <c r="AK241" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL241" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM241" s="1">
         <v>0</v>
       </c>
       <c r="AN241" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B242" s="1">
         <v>0</v>
@@ -29959,19 +29963,19 @@
         <v>0</v>
       </c>
       <c r="M242" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N242" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O242" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P242" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q242" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R242" s="1">
         <v>0</v>
@@ -30040,12 +30044,12 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B243" s="1">
         <v>0</v>
@@ -30081,19 +30085,19 @@
         <v>0</v>
       </c>
       <c r="M243" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N243" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O243" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P243" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q243" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R243" s="1">
         <v>0</v>
@@ -30114,22 +30118,22 @@
         <v>0</v>
       </c>
       <c r="X243" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y243" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z243" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA243" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB243" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC243" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD243" s="1">
         <v>0</v>
@@ -30162,12 +30166,12 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B244" s="1">
         <v>0</v>
@@ -30236,22 +30240,22 @@
         <v>0</v>
       </c>
       <c r="X244" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y244" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z244" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA244" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB244" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC244" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD244" s="1">
         <v>0</v>
@@ -30284,12 +30288,12 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B245" s="1">
         <v>0</v>
@@ -30358,22 +30362,22 @@
         <v>0</v>
       </c>
       <c r="X245" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y245" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z245" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA245" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB245" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC245" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD245" s="1">
         <v>0</v>
@@ -30406,12 +30410,12 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B246" s="1">
         <v>0</v>
@@ -30480,22 +30484,22 @@
         <v>0</v>
       </c>
       <c r="X246" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y246" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z246" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA246" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB246" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC246" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD246" s="1">
         <v>0</v>
@@ -30519,21 +30523,21 @@
         <v>0</v>
       </c>
       <c r="AK246" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL246" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM246" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN246" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B247" s="1">
         <v>0</v>
@@ -30566,28 +30570,28 @@
         <v>0</v>
       </c>
       <c r="L247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T247" s="1">
         <v>0</v>
@@ -30629,33 +30633,33 @@
         <v>0</v>
       </c>
       <c r="AG247" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH247" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI247" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ247" s="1">
         <v>0</v>
       </c>
       <c r="AK247" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL247" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM247" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN247" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B248" s="1">
         <v>0</v>
@@ -30763,21 +30767,21 @@
         <v>0</v>
       </c>
       <c r="AK248" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN248" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B249" s="1">
         <v>0</v>
@@ -30885,21 +30889,21 @@
         <v>0</v>
       </c>
       <c r="AK249" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL249" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM249" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN249" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B250" s="1">
         <v>0</v>
@@ -31007,21 +31011,21 @@
         <v>0</v>
       </c>
       <c r="AK250" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN250" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B251" s="1">
         <v>0</v>
@@ -31036,22 +31040,22 @@
         <v>0</v>
       </c>
       <c r="F251" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J251" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K251" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L251" s="1">
         <v>0</v>
@@ -31129,21 +31133,21 @@
         <v>0</v>
       </c>
       <c r="AK251" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL251" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM251" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN251" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B252" s="1">
         <v>0</v>
@@ -31152,13 +31156,13 @@
         <v>0</v>
       </c>
       <c r="D252" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G252" s="1">
         <v>1</v>
@@ -31167,13 +31171,13 @@
         <v>1</v>
       </c>
       <c r="I252" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K252" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L252" s="1">
         <v>0</v>
@@ -31251,21 +31255,21 @@
         <v>0</v>
       </c>
       <c r="AK252" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL252" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM252" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN252" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B253" s="1">
         <v>0</v>
@@ -31280,22 +31284,22 @@
         <v>0</v>
       </c>
       <c r="F253" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G253" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H253" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I253" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J253" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K253" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L253" s="1">
         <v>0</v>
@@ -31367,27 +31371,27 @@
         <v>0</v>
       </c>
       <c r="AI253" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ253" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK253" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL253" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM253" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AN253" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B254" s="1">
         <v>0</v>
@@ -31504,12 +31508,12 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B255" s="1">
         <v>0</v>
@@ -31626,12 +31630,12 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B256" s="1">
         <v>0</v>
@@ -31667,22 +31671,22 @@
         <v>0</v>
       </c>
       <c r="M256" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O256" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P256" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R256" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S256" s="1">
         <v>0</v>
@@ -31748,12 +31752,12 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B257" s="1">
         <v>0</v>
@@ -31789,7 +31793,7 @@
         <v>0</v>
       </c>
       <c r="M257" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N257" s="1">
         <v>0</v>
@@ -31870,12 +31874,12 @@
         <v>0</v>
       </c>
       <c r="AN257" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B258" s="1">
         <v>0</v>
@@ -31992,12 +31996,12 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B259" s="1">
         <v>0</v>
@@ -32060,31 +32064,31 @@
         <v>0</v>
       </c>
       <c r="V259" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC259" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD259" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE259" s="1">
         <v>0</v>
@@ -32114,12 +32118,12 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B260" s="1">
         <v>0</v>
@@ -32182,31 +32186,31 @@
         <v>0</v>
       </c>
       <c r="V260" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD260" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE260" s="1">
         <v>0</v>
@@ -32236,12 +32240,12 @@
         <v>0</v>
       </c>
       <c r="AN260" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B261" s="1">
         <v>0</v>
@@ -32304,31 +32308,31 @@
         <v>0</v>
       </c>
       <c r="V261" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W261" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X261" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y261" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z261" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA261" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB261" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC261" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD261" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE261" s="1">
         <v>0</v>
@@ -32349,21 +32353,21 @@
         <v>0</v>
       </c>
       <c r="AK261" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL261" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM261" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN261" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B262" s="1">
         <v>0</v>
@@ -32372,19 +32376,19 @@
         <v>0</v>
       </c>
       <c r="D262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" s="1">
         <v>0</v>
@@ -32480,12 +32484,12 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B263" s="1">
         <v>0</v>
@@ -32602,7 +32606,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32610,19 +32614,19 @@
         <v>1</v>
       </c>
       <c r="B264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E264" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F264" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G264" s="1">
         <v>0</v>
@@ -32724,7 +32728,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32732,19 +32736,19 @@
         <v>1</v>
       </c>
       <c r="B265" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F265" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G265" s="1">
         <v>0</v>
@@ -32828,22 +32832,22 @@
         <v>0</v>
       </c>
       <c r="AH265" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM265" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN265" s="1">
         <v>1</v>
@@ -32854,22 +32858,22 @@
         <v>1</v>
       </c>
       <c r="B266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G266" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H266" s="1">
         <v>0</v>
@@ -32950,22 +32954,22 @@
         <v>0</v>
       </c>
       <c r="AH266" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN266" s="1">
         <v>1</v>
@@ -32976,25 +32980,25 @@
         <v>1</v>
       </c>
       <c r="B267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I267" s="1">
         <v>0</v>
@@ -33072,22 +33076,22 @@
         <v>0</v>
       </c>
       <c r="AH267" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN267" s="1">
         <v>1</v>
@@ -33098,28 +33102,28 @@
         <v>1</v>
       </c>
       <c r="B268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J268" s="1">
         <v>0</v>
@@ -33131,22 +33135,22 @@
         <v>0</v>
       </c>
       <c r="M268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S268" s="1">
         <v>0</v>
@@ -33188,28 +33192,28 @@
         <v>0</v>
       </c>
       <c r="AF268" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG268" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH268" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI268" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ268" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN268" s="1">
         <v>1</v>
@@ -33220,31 +33224,31 @@
         <v>1</v>
       </c>
       <c r="B269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K269" s="1">
         <v>0</v>
@@ -33316,22 +33320,22 @@
         <v>0</v>
       </c>
       <c r="AH269" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN269" s="1">
         <v>1</v>
@@ -33342,34 +33346,34 @@
         <v>1</v>
       </c>
       <c r="B270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K270" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L270" s="1">
         <v>0</v>
@@ -33417,7 +33421,7 @@
         <v>0</v>
       </c>
       <c r="AA270" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB270" s="1">
         <v>0</v>
@@ -33429,7 +33433,7 @@
         <v>0</v>
       </c>
       <c r="AE270" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AF270" s="1">
         <v>0</v>
@@ -33438,22 +33442,22 @@
         <v>0</v>
       </c>
       <c r="AH270" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI270" s="1">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="AJ270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN270" s="1">
         <v>1</v>
@@ -33464,37 +33468,37 @@
         <v>1</v>
       </c>
       <c r="B271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L271" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M271" s="1">
         <v>0</v>
@@ -33544,7 +33548,9 @@
       <c r="AB271" s="1">
         <v>0</v>
       </c>
-      <c r="AC271" s="1"/>
+      <c r="AC271" s="1">
+        <v>0</v>
+      </c>
       <c r="AD271" s="1">
         <v>0</v>
       </c>
@@ -33558,22 +33564,22 @@
         <v>0</v>
       </c>
       <c r="AH271" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN271" s="1">
         <v>1</v>
@@ -33584,64 +33590,64 @@
         <v>1</v>
       </c>
       <c r="B272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I272" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J272" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K272" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L272" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T272" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U272" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V272" s="1">
         <v>0</v>
@@ -33680,22 +33686,22 @@
         <v>0</v>
       </c>
       <c r="AH272" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN272" s="1">
         <v>1</v>
@@ -33706,22 +33712,22 @@
         <v>1</v>
       </c>
       <c r="B273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H273" s="1">
         <v>0</v>
@@ -33739,31 +33745,31 @@
         <v>0</v>
       </c>
       <c r="M273" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U273" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V273" s="1">
         <v>0</v>
@@ -33802,22 +33808,22 @@
         <v>0</v>
       </c>
       <c r="AH273" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN273" s="1">
         <v>1</v>
@@ -33828,10 +33834,10 @@
         <v>1</v>
       </c>
       <c r="B274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274" s="1">
         <v>1</v>
@@ -33840,16 +33846,16 @@
         <v>1</v>
       </c>
       <c r="F274" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" s="1">
         <v>0</v>
@@ -33861,31 +33867,31 @@
         <v>0</v>
       </c>
       <c r="M274" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U274" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V274" s="1">
         <v>0</v>
@@ -33903,7 +33909,7 @@
         <v>0</v>
       </c>
       <c r="AA274" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB274" s="1">
         <v>0</v>
@@ -33915,7 +33921,7 @@
         <v>0</v>
       </c>
       <c r="AE274" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AF274" s="1">
         <v>0</v>
@@ -33924,22 +33930,22 @@
         <v>0</v>
       </c>
       <c r="AH274" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI274" s="1">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="AJ274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN274" s="1">
         <v>1</v>
@@ -33950,19 +33956,19 @@
         <v>1</v>
       </c>
       <c r="B275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G275" s="1">
         <v>0</v>
@@ -33983,31 +33989,31 @@
         <v>0</v>
       </c>
       <c r="M275" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U275" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V275" s="1">
         <v>0</v>
@@ -34046,22 +34052,22 @@
         <v>0</v>
       </c>
       <c r="AH275" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN275" s="1">
         <v>1</v>
@@ -34072,19 +34078,19 @@
         <v>1</v>
       </c>
       <c r="B276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G276" s="1">
         <v>0</v>
@@ -34105,31 +34111,31 @@
         <v>0</v>
       </c>
       <c r="M276" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N276" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O276" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P276" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q276" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R276" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S276" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T276" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U276" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V276" s="1">
         <v>0</v>
@@ -34168,22 +34174,22 @@
         <v>0</v>
       </c>
       <c r="AH276" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN276" s="1">
         <v>1</v>
@@ -34194,19 +34200,19 @@
         <v>1</v>
       </c>
       <c r="B277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G277" s="1">
         <v>0</v>
@@ -34290,22 +34296,22 @@
         <v>0</v>
       </c>
       <c r="AH277" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN277" s="1">
         <v>1</v>
@@ -34316,19 +34322,19 @@
         <v>1</v>
       </c>
       <c r="B278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G278" s="1">
         <v>0</v>
@@ -34391,7 +34397,7 @@
         <v>0</v>
       </c>
       <c r="AA278" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB278" s="1">
         <v>0</v>
@@ -34403,7 +34409,7 @@
         <v>0</v>
       </c>
       <c r="AE278" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AF278" s="1">
         <v>0</v>
@@ -34412,22 +34418,22 @@
         <v>0</v>
       </c>
       <c r="AH278" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI278" s="1">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="AJ278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN278" s="1">
         <v>1</v>
@@ -34438,19 +34444,19 @@
         <v>1</v>
       </c>
       <c r="B279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F279" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G279" s="1">
         <v>0</v>
@@ -34477,25 +34483,25 @@
         <v>0</v>
       </c>
       <c r="O279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U279" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V279" s="1">
         <v>0</v>
@@ -34534,22 +34540,22 @@
         <v>0</v>
       </c>
       <c r="AH279" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN279" s="1">
         <v>1</v>
@@ -34560,19 +34566,19 @@
         <v>1</v>
       </c>
       <c r="B280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F280" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G280" s="1">
         <v>0</v>
@@ -34656,22 +34662,22 @@
         <v>0</v>
       </c>
       <c r="AH280" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN280" s="1">
         <v>1</v>
@@ -34682,19 +34688,19 @@
         <v>1</v>
       </c>
       <c r="B281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G281" s="1">
         <v>0</v>
@@ -34778,22 +34784,22 @@
         <v>0</v>
       </c>
       <c r="AH281" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN281" s="1">
         <v>1</v>
@@ -34804,19 +34810,19 @@
         <v>1</v>
       </c>
       <c r="B282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G282" s="1">
         <v>0</v>
@@ -34900,22 +34906,22 @@
         <v>0</v>
       </c>
       <c r="AH282" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN282" s="1">
         <v>1</v>
@@ -34926,19 +34932,19 @@
         <v>1</v>
       </c>
       <c r="B283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F283" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G283" s="1">
         <v>0</v>
@@ -35022,22 +35028,22 @@
         <v>0</v>
       </c>
       <c r="AH283" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN283" s="1">
         <v>1</v>
@@ -35048,19 +35054,19 @@
         <v>1</v>
       </c>
       <c r="B284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G284" s="1">
         <v>0</v>
@@ -35144,22 +35150,22 @@
         <v>0</v>
       </c>
       <c r="AH284" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN284" s="1">
         <v>1</v>
@@ -35170,19 +35176,19 @@
         <v>1</v>
       </c>
       <c r="B285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G285" s="1">
         <v>0</v>
@@ -35266,22 +35272,22 @@
         <v>0</v>
       </c>
       <c r="AH285" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN285" s="1">
         <v>1</v>
@@ -35307,85 +35313,85 @@
         <v>1</v>
       </c>
       <c r="G286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH286" s="1">
         <v>1</v>
@@ -37123,7 +37129,7 @@
       <formula>A1048563=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AN117 B107:AM262 D118:AN123 A118:A124 C124:AN124 A125:AN300">
+  <conditionalFormatting sqref="B107:AM262 C124:AN124 A14:A262 AN15:AN264 A125:AN300 D118:AN123 A1:AN117">
     <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>50</formula>
     </cfRule>

--- a/Project2/map/map_stage3(1).xlsx
+++ b/Project2/map/map_stage3(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JumpKing\Project2\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0D481-D424-4408-B1FB-78DF4E9B55B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D171D102-9DDA-4689-A44E-7E9D047ED797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="13605" xr2:uid="{68129AD2-75B7-47D2-A759-44B82251DD15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{68129AD2-75B7-47D2-A759-44B82251DD15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,43 +65,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -198,6 +161,43 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147F8862-DF55-4309-99EC-A76675B592DE}">
   <dimension ref="A1:AN300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="63" workbookViewId="0">
+      <selection sqref="A1:AN300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -769,1344 +769,1344 @@
     </row>
     <row r="3" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="U3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AA3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AF3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AG3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AH3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AI3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AM3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AN3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
         <v>0</v>
@@ -3507,19 +3507,19 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
@@ -4828,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
@@ -5310,16 +5310,16 @@
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -5902,19 +5902,19 @@
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -37129,54 +37129,54 @@
       <formula>A1048563=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B107:AM262 C124:AN124 A14:A262 AN15:AN264 A125:AN300 D118:AN123 A1:AN117">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+  <conditionalFormatting sqref="A14:A262 AN15:AN264 B107:AM262 D118:AN123 C124:AN124 A125:AN300 A1:AN117">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AN300">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>51</formula>
       <formula>55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>51</formula>
       <formula>55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>26</formula>
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K227:P227">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V227:AA227">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG142:AJ142">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
